--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C878332F-E837-A34A-8B16-3522CB01C6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E6A8F2-4CC1-D440-AF11-8FA2430E7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="8" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="140">
   <si>
     <t xml:space="preserve">Aluno </t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1ITdjTv2GNPrwdvppY_pBlipAHXahyaFV</t>
+  </si>
+  <si>
+    <t>Ata</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B50168-E3BA-8E48-82C0-0FE954EB8749}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2458,7 +2461,7 @@
 " (",
 ROUND(COUNTIFS(Bolsistas!$A:$A,"&lt;&gt;"&amp; "Pós-Doutorado",Bolsistas!E:E,"Sim",Bolsistas!H:H,"&lt;="&amp;YEAR(TODAY()))/COUNTIFS(Bolsistas!$A:$A,"&lt;&gt;"&amp; "Pós-Doutorado",Bolsistas!H:H,"&lt;"&amp;YEAR(TODAY()))*100,0),
 "%)")</f>
-        <v>56 (97%)</v>
+        <v>56 (98%)</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
@@ -2489,7 +2492,7 @@
 " (",
 ROUND(COUNTIFS(Bolsistas!$A:$A,$B14,Bolsistas!E:E,"Sim",Bolsistas!H:H,"&lt;="&amp;YEAR(TODAY()))/COUNTIFS(Bolsistas!$A:$A,$B14,Bolsistas!H:H,"&lt;"&amp;YEAR(TODAY()))*100,0),
 "%)")</f>
-        <v>44 (96%)</v>
+        <v>44 (98%)</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
@@ -3132,11 +3135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5487,6 +5490,9 @@
       <c r="D74" s="27">
         <v>44773</v>
       </c>
+      <c r="E74" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="F74" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
         <v>23</v>
@@ -5499,7 +5505,9 @@
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
         <v>2022</v>
       </c>
-      <c r="I74" s="10"/>
+      <c r="I74" s="10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">

--- a/docs/PPG/Bolsas.xlsx
+++ b/docs/PPG/Bolsas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E6A8F2-4CC1-D440-AF11-8FA2430E7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022B93ED-C025-D34F-BB6D-28C003A5CEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="8" r:id="rId1"/>
@@ -1457,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B50168-E3BA-8E48-82C0-0FE954EB8749}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="R5" s="35">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5" s="35">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T5" s="1"/>
     </row>
@@ -1780,14 +1780,14 @@
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;R$4,
 Bolsistas!$H:$H,"&gt;="&amp;R$4)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S6" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B6,
 Bolsistas!$G:$G,"&lt;="&amp;S$4,
 Bolsistas!$H:$H,"&gt;="&amp;S$4)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T6" s="1"/>
     </row>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="R9" s="11">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S9" s="11">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T9" s="1"/>
     </row>
@@ -2202,14 +2202,14 @@
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;R$4,
 Bolsistas!$H:$H,"&gt;="&amp;R$4)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S10" s="11">
         <f>COUNTIFS(
 Bolsistas!$A:$A,$B10,
 Bolsistas!$G:$G,"&lt;="&amp;S$4,
 Bolsistas!$H:$H,"&gt;="&amp;S$4)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T10" s="1"/>
     </row>
@@ -2710,7 +2710,7 @@
 "-",
 FIXED(MAX(IF(Bolsistas!$A:$A&lt;&gt;"",IF(Bolsistas!$A:$A=$B17,IF(Bolsistas!$G:$G&lt;=Q$4,IF(Bolsistas!$H:$H&gt;=Q$4,Bolsistas!$F:$F))))),0),
 ")"),"-")</f>
-        <v>24 (21-24)</v>
+        <v>24 (11-24)</v>
       </c>
       <c r="R17" s="14" t="str" cm="1">
         <f t="array" ref="R17">IFERROR(CONCATENATE(
@@ -3135,11 +3135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6194,12 +6194,12 @@
       <c r="C100" s="27">
         <v>44593</v>
       </c>
-      <c r="D100" s="27">
-        <v>45322</v>
+      <c r="D100" s="40">
+        <v>44926</v>
       </c>
       <c r="F100" s="26">
         <f>ROUNDUP((Tabela1[[#This Row],[Fim da Bolsa ]]-Tabela1[[#This Row],[Início da Bolsa]])/365*12,0)</f>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G100" s="26">
         <f>YEAR(Tabela1[[#This Row],[Início da Bolsa]])</f>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="H100" s="26">
         <f>YEAR(Tabela1[[#This Row],[Fim da Bolsa ]])</f>
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="I100" s="10"/>
     </row>
